--- a/tables/enamine_compounds.xlsx
+++ b/tables/enamine_compounds.xlsx
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,35 +1389,73 @@
         <v>-35.621409999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>65</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <f>AVERAGE(D3:D22)</f>
+        <v>278.25250000000005</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23:L23" si="0">AVERAGE(E3:E22)</f>
+        <v>-7.25</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.580000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.5950000000000006</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>-32.841682399999989</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>-38.364223699999997</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>-38.794050000000006</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>-34.95884439999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>68</v>
       </c>
     </row>
